--- a/Vulnerabilities/VulnerabilityDescription.xlsx
+++ b/Vulnerabilities/VulnerabilityDescription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\智能合约安全\形式化验证\符号路径搜索\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Duikang_dataset\RSymX\Vulnerabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83486A51-8E48-49C0-AFE4-A963C75D3640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1DD34B-DCF4-4C7D-9DD2-376EE2A1502A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="4" r:id="rId1"/>
@@ -489,21 +489,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>msg.value==0 The check condition is meaningless in most cases.</t>
+  </si>
+  <si>
+    <t>contract A{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address owner;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;mapping(address =&gt; uint256) balances;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;constructor() {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;owner = msg.sender;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function B() return (uint256){&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;if(masg.value == 0) {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;return 0;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;balances[msg.sender] += msg.value;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;return balances[msg.sender];&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The condition "masg.value == 0" has no effect at most of the time. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check whether the check condition is really needed, and delete it if it is not needed to save gas.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>The judgment of msg.value and zero</t>
-  </si>
-  <si>
-    <t>msg.value==0 The check condition is meaningless in most cases.</t>
-  </si>
-  <si>
-    <t>contract A{&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;address owner;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;mapping(address =&gt; uint256) balances;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;constructor() {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;owner = msg.sender;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;function B() return (uint256){&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;if(masg.value == 0) {&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;return 0;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;balances[msg.sender] += msg.value;&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;&amp;#160;return balances[msg.sender];&lt;br/&gt;&amp;#160;&amp;#160;&amp;#160;&amp;#160;}&lt;br/&gt;}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The condition "masg.value == 0" has no effect at most of the time. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check whether the check condition is really needed, and delete it if it is not needed to save gas.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +836,7 @@
   <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1357,7 +1358,7 @@
         <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -1369,16 +1370,16 @@
         <v>65</v>
       </c>
       <c r="G17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
         <v>118</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>119</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>120</v>
-      </c>
-      <c r="J17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
